--- a/merchex/Excels/Clermont_Export_Planning.xlsx
+++ b/merchex/Excels/Clermont_Export_Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -723,93 +723,93 @@
     <x:t>14/01/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>15/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FB - UE Arb. CARUSO Antoine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FB - UE Arb. KONATE Kaba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeudi RUGBY Synthétique La Loue MONTLUCON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-RG- DUSZYNSKI Gael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeudi Gymn de LUSIGNY ( 10km de MOULINS 03)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>début 2nde phase le 28/01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB - UE Arb. Roland Elvis BASSOLOKIDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AURA_VBM_IUT - VOLLEY BALL (AURA IUT - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Poule de 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IUT Puy en Velay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeudi Gymn. Colette BESSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accès gymnase dès 13h45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AURA_BBM_IUT - BASKET BALL (AURA IUT - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IUT LYON 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jeudi Gymn. R Lismann VILLEURBANNE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-RG- BOURNAZEL Germain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeudi FOOT Stade SYNTH. Champ Daillant YZEURE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FB - UE Arb. OULEAGUIG Hamza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/01/2025</x:t>
+  </x:si>
+  <x:si>
     <x:t>FB - UE Arb. ADOUNKE Diano</x:t>
   </x:si>
   <x:si>
-    <x:t>15/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FB - UE Arb. CARUSO Antoine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FB - UE Arb. KONATE Kaba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeudi RUGBY Synthétique La Loue MONTLUCON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-RG- DUSZYNSKI Gael</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeudi Gymn de LUSIGNY ( 10km de MOULINS 03)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>début 2nde phase le 28/01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BB - UE Arb. Roland Elvis BASSOLOKIDI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AURA_VBM_IUT - VOLLEY BALL (AURA IUT - M)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Poule de 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IUT Puy en Velay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeudi Gymn. Colette BESSON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accès gymnase dès 13h45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AURA_BBM_IUT - BASKET BALL (AURA IUT - M)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IUT LYON 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jeudi Gymn. R Lismann VILLEURBANNE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-RG- BOURNAZEL Germain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeudi FOOT Stade SYNTH. Champ Daillant YZEURE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FB - UE Arb. OULEAGUIG Hamza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28/01/2025</x:t>
-  </x:si>
-  <x:si>
     <x:t>29/01/2025</x:t>
   </x:si>
   <x:si>
@@ -969,9 +969,15 @@
     <x:t>VICHY/SANTE/STAPS</x:t>
   </x:si>
   <x:si>
+    <x:t>-RG- JALENQUES NOE</x:t>
+  </x:si>
+  <x:si>
     <x:t>SIGMA/MONTLUCON/ESC</x:t>
   </x:si>
   <x:si>
+    <x:t>-RG- COUSIN DORIAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>17/03/2025</x:t>
   </x:si>
   <x:si>
@@ -987,12 +993,12 @@
     <x:t>24/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>25/03/2025</x:t>
+  </x:si>
+  <x:si>
     <x:t>26/03/2025</x:t>
   </x:si>
   <x:si>
-    <x:t>27/03/2025</x:t>
-  </x:si>
-  <x:si>
     <x:t>31/03/2025</x:t>
   </x:si>
   <x:si>
@@ -1005,9 +1011,48 @@
     <x:t>ARCHI/STAPS/ESC</x:t>
   </x:si>
   <x:si>
+    <x:t>BBF_Acad_Classement_ - BASKET BALL (ACADEMIE - F)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Places 5-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P17-18 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VICTOIRE HISTAOIRE AUX TAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P16-15 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBF_Finale - FOOTBALL à 8 (ACADEMIE - F)</x:t>
+  </x:si>
+  <x:si>
     <x:t>09/04/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>FBM_Finale_P4-3 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Poule_P11-12 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB - UE Arb. Luini Jacob DAMY, BB - UE Arb. Roland Elvis BASSOLOKIDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB - UE Arb. Alexandre BOUTON, BB - UE Arb. Mendrika  Fitahiana RAJAONARIVELO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Places 3-4</x:t>
+  </x:si>
+  <x:si>
     <x:t>10/04/2025</x:t>
   </x:si>
   <x:si>
@@ -1020,10 +1065,106 @@
     <x:t>17 avril finale haute ( les 3 meilleures equipes) cezeaux /finale basse (3 suivantes) leclanché</x:t>
   </x:si>
   <x:si>
+    <x:t>BBM_Poule_P15-16 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Place 1-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P6-5 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P5-6 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P12-11 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P10-9 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FB - UE Arb. Touche KILIC Duzgun Can, FB - UE Arb. Touche KONATE Kaba, FB - UE Arb. ZAMBO Salomon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P2-1 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>16/04/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>BBM_Finale_P9-10 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB - UE Arb. Abdoul Karim KANTE, BB - UE Arb. Zaki ABAIDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RG7M_Finale-P4-6 - RUGBY à 7 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>17/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCHI/MONTLUCON/VICHY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plateau 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RG7M_Finale-P1-3 - RUGBY à 7 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Poule_P13-14 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P8-7 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P3-4 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P14-13 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P7-8 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB - UE Arb. Luini Jacob DAMY, BB - UE Arb. Olivier HALAOUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_1/4F_CFDU - FOOTBALL à 11 (CFU N1  - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U. PARIS 8 St Denis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Univ. Montpellier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P1-2 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_1/4F_N2 - FOOTBALL à 11 (CFU N1  - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U. PARIS  NANTERRE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1400,7 +1541,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H330"/>
+  <x:dimension ref="A1:H356"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4550,45 +4691,45 @@
     </x:row>
     <x:row r="144" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A144" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B144" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C144" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D144" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E144" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F144" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G144" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A145" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B145" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C145" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D145" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E145" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F145" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G145" s="1" t="s">
         <x:v>237</x:v>
@@ -4596,122 +4737,122 @@
     </x:row>
     <x:row r="146" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A146" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B146" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C146" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D146" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E146" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F146" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G146" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A147" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B147" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C147" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D147" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E147" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F147" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G147" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A148" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B148" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C148" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D148" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E148" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F148" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G148" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A149" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B149" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C149" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D149" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E149" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F149" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G149" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A150" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B150" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C150" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D150" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="E150" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F150" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="G150" s="1" t="s">
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A151" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B151" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C151" s="1" t="s">
         <x:v>38</x:v>
@@ -4720,122 +4861,119 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E151" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F151" s="1" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="G151" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A152" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B152" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C152" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D152" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E152" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F152" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="H152" s="1" t="s">
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A153" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B153" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C153" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D153" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E153" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F153" s="1" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="H153" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G153" s="1" t="s">
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A154" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B154" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C154" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D154" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E154" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F154" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G154" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A155" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B155" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C155" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D155" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E155" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F155" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G155" s="1" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A156" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B156" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C156" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D156" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E156" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F156" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G156" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -4843,538 +4981,541 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B157" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C157" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D157" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E157" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F157" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A158" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B158" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C158" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D158" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E158" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F158" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G158" s="1" t="s">
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A159" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B159" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C159" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D159" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E159" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F159" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G159" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A160" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B160" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C160" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D160" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E160" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F160" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A161" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B161" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C161" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D161" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E161" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F161" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G161" s="1" t="s">
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A162" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B162" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C162" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D162" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E162" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F162" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G162" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A163" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B163" s="1" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C163" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D163" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E163" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F163" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G163" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A164" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B164" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C164" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D164" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E164" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F164" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G164" s="1" t="s">
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A165" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B165" s="1" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="C165" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D165" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E165" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F165" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G165" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A166" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B166" s="1" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C166" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D166" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E166" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F166" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G166" s="1" t="s">
         <x:v>246</x:v>
-      </x:c>
-      <x:c r="C166" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D166" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E166" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F166" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G166" s="1" t="s">
-        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A167" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B167" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C167" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D167" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E167" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F167" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G167" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A168" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B168" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C168" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D168" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E168" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F168" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G168" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="H168" s="1" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A169" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B169" s="1" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="B169" s="1" t="s">
-        <x:v>249</x:v>
-      </x:c>
       <x:c r="C169" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D169" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E169" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F169" s="1" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="H169" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A170" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B170" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C170" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D170" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E170" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F170" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A171" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B171" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C171" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D171" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E171" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F171" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G171" s="1" t="s">
         <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A172" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B172" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C172" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D172" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E172" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F172" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G172" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A173" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B173" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C173" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D173" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E173" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F173" s="1" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="G173" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A174" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B174" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C174" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D174" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E174" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F174" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G174" s="1" t="s">
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A175" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B175" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C175" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D175" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E175" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F175" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G175" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A176" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B176" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C176" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D176" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E176" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F176" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A177" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B177" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C177" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D177" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E177" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F177" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A178" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B178" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C178" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D178" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E178" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F178" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G178" s="1" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A179" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B179" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C179" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D179" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E179" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F179" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G179" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A180" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B180" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C180" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="D180" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E180" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F180" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="G180" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A181" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B181" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D181" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E181" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F181" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G181" s="1" t="s">
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5382,22 +5523,22 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B182" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C182" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D182" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E182" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F182" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G182" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5405,96 +5546,93 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B183" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C183" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D183" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E183" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F183" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G183" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A184" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B184" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C184" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D184" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E184" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F184" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G184" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A185" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B185" s="1" t="s">
         <x:v>264</x:v>
       </x:c>
       <x:c r="C185" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D185" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E185" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F185" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G185" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A186" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B186" s="1" t="s">
         <x:v>264</x:v>
       </x:c>
       <x:c r="C186" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D186" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E186" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F186" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G186" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A187" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B187" s="1" t="s">
         <x:v>264</x:v>
@@ -5503,33 +5641,39 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D187" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E187" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F187" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A188" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B188" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C188" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D188" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E188" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F188" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="G188" s="1" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="H188" s="1" t="s">
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5543,70 +5687,67 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D189" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E189" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F189" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G189" s="1" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="H189" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A190" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B190" s="1" t="s">
         <x:v>266</x:v>
       </x:c>
       <x:c r="C190" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D190" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E190" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F190" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G190" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A191" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B191" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C191" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D191" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E191" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F191" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G191" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A192" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B192" s="1" t="s">
         <x:v>269</x:v>
@@ -5615,21 +5756,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D192" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E192" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F192" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G192" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A193" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B193" s="1" t="s">
         <x:v>269</x:v>
@@ -5638,39 +5779,36 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D193" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E193" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F193" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G193" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A194" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B194" s="1" t="s">
         <x:v>269</x:v>
       </x:c>
       <x:c r="C194" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D194" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E194" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F194" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G194" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5678,19 +5816,22 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B195" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C195" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D195" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E195" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F195" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G195" s="1" t="s">
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5698,50 +5839,50 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B196" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C196" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D196" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E196" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F196" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G196" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A197" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B197" s="1" t="s">
         <x:v>274</x:v>
       </x:c>
       <x:c r="C197" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D197" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E197" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F197" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G197" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A198" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B198" s="1" t="s">
         <x:v>274</x:v>
@@ -5750,21 +5891,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D198" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E198" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F198" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G198" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A199" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B199" s="1" t="s">
         <x:v>274</x:v>
@@ -5773,21 +5914,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D199" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E199" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F199" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G199" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A200" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B200" s="1" t="s">
         <x:v>274</x:v>
@@ -5796,41 +5937,38 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D200" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E200" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F200" s="1" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G200" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A201" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B201" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C201" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D201" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E201" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F201" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A202" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B202" s="1" t="s">
         <x:v>278</x:v>
@@ -5839,13 +5977,19 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D202" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E202" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F202" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G202" s="1" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="H202" s="1" t="s">
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5856,53 +6000,50 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="C203" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D203" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E203" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F203" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G203" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H203" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A204" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B204" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
       <x:c r="C204" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D204" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E204" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F204" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G204" s="1" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="H204" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A205" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B205" s="1" t="s">
         <x:v>278</x:v>
@@ -5911,21 +6052,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D205" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E205" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F205" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G205" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A206" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B206" s="1" t="s">
         <x:v>278</x:v>
@@ -5934,18 +6072,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D206" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E206" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F206" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G206" s="1" t="s">
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A207" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B207" s="1" t="s">
         <x:v>278</x:v>
@@ -5954,16 +6095,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D207" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E207" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F207" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G207" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5977,13 +6115,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D208" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E208" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F208" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5997,18 +6135,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D209" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E209" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F209" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A210" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B210" s="1" t="s">
         <x:v>278</x:v>
@@ -6017,61 +6155,64 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D210" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E210" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F210" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G210" s="1" t="s">
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A211" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B211" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
       <x:c r="C211" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D211" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E211" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F211" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G211" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A212" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B212" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C212" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D212" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E212" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F212" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G212" s="1" t="s">
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A213" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B213" s="1" t="s">
         <x:v>289</x:v>
@@ -6080,21 +6221,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D213" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E213" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F213" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G213" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A214" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B214" s="1" t="s">
         <x:v>289</x:v>
@@ -6103,59 +6244,59 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D214" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E214" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F214" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G214" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A215" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B215" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C215" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D215" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E215" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F215" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G215" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A216" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B216" s="1" t="s">
         <x:v>290</x:v>
       </x:c>
       <x:c r="C216" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D216" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E216" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F216" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G216" s="1" t="s">
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -6163,22 +6304,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B217" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C217" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D217" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E217" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F217" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G217" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -6192,10 +6333,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D218" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E218" s="1" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="E218" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="F218" s="1" t="s">
         <x:v>41</x:v>
@@ -6206,30 +6347,30 @@
     </x:row>
     <x:row r="219" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A219" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B219" s="1" t="s">
         <x:v>291</x:v>
       </x:c>
       <x:c r="C219" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D219" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E219" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F219" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G219" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A220" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B220" s="1" t="s">
         <x:v>291</x:v>
@@ -6238,21 +6379,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D220" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E220" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F220" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G220" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A221" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B221" s="1" t="s">
         <x:v>291</x:v>
@@ -6261,21 +6402,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D221" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E221" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F221" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G221" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A222" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B222" s="1" t="s">
         <x:v>291</x:v>
@@ -6284,64 +6425,61 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D222" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E222" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F222" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G222" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A223" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B223" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C223" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D223" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E223" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F223" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G223" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A224" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B224" s="1" t="s">
         <x:v>294</x:v>
       </x:c>
       <x:c r="C224" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D224" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E224" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F224" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A225" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B225" s="1" t="s">
         <x:v>294</x:v>
@@ -6350,18 +6488,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D225" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E225" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F225" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G225" s="1" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A226" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B226" s="1" t="s">
         <x:v>294</x:v>
@@ -6370,21 +6511,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D226" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E226" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F226" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G226" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A227" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B227" s="1" t="s">
         <x:v>294</x:v>
@@ -6393,18 +6531,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D227" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E227" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F227" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A228" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B228" s="1" t="s">
         <x:v>294</x:v>
@@ -6413,18 +6551,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D228" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E228" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F228" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G228" s="1" t="s">
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A229" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B229" s="1" t="s">
         <x:v>294</x:v>
@@ -6433,21 +6574,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D229" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E229" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F229" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G229" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A230" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B230" s="1" t="s">
         <x:v>294</x:v>
@@ -6456,41 +6594,44 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D230" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E230" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F230" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G230" s="1" t="s">
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A231" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B231" s="1" t="s">
         <x:v>294</x:v>
       </x:c>
       <x:c r="C231" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D231" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E231" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F231" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G231" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A232" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B232" s="1" t="s">
         <x:v>294</x:v>
@@ -6499,36 +6640,36 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="D232" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E232" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F232" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G232" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A233" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B233" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C233" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D233" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E233" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F233" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G233" s="1" t="s">
         <x:v>190</x:v>
@@ -6536,7 +6677,7 @@
     </x:row>
     <x:row r="234" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A234" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B234" s="1" t="s">
         <x:v>300</x:v>
@@ -6545,36 +6686,39 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D234" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E234" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F234" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G234" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A235" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B235" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C235" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D235" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E235" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F235" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G235" s="1" t="s">
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -6582,19 +6726,19 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B236" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C236" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D236" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E236" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F236" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G236" s="1" t="s">
         <x:v>301</x:v>
@@ -6602,53 +6746,50 @@
     </x:row>
     <x:row r="237" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A237" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B237" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C237" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D237" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E237" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F237" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G237" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A238" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B238" s="1" t="s">
         <x:v>303</x:v>
       </x:c>
       <x:c r="C238" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D238" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E238" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F238" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G238" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A239" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B239" s="1" t="s">
         <x:v>303</x:v>
@@ -6657,173 +6798,170 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D239" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E239" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F239" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G239" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A240" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B240" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C240" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D240" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E240" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F240" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A241" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C241" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D241" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E241" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F241" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G241" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A242" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B242" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C242" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D242" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E242" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F242" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G242" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A243" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B243" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
       <x:c r="C243" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D243" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E243" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F243" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="G243" s="1" t="s">
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A244" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B244" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
       <x:c r="C244" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D244" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E244" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F244" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A245" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B245" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
       <x:c r="C245" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D245" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E245" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F245" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G245" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A246" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B246" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
       <x:c r="C246" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D246" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E246" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F246" s="1" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="G246" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A247" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B247" s="1" t="s">
         <x:v>304</x:v>
@@ -6832,18 +6970,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D247" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E247" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F247" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A248" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B248" s="1" t="s">
         <x:v>304</x:v>
@@ -6852,16 +6990,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D248" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E248" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F248" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G248" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -6875,18 +7010,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D249" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E249" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F249" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A250" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B250" s="1" t="s">
         <x:v>304</x:v>
@@ -6895,18 +7030,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D250" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E250" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F250" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G250" s="1" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A251" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B251" s="1" t="s">
         <x:v>304</x:v>
@@ -6915,76 +7053,79 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D251" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E251" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F251" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G251" s="1" t="s">
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A252" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B252" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
       <x:c r="C252" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D252" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E252" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F252" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A253" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B253" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C253" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D253" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E253" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F253" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G253" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A254" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B254" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C254" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D254" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E254" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F254" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G254" s="1" t="s">
         <x:v>301</x:v>
@@ -6992,45 +7133,45 @@
     </x:row>
     <x:row r="255" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A255" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B255" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C255" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D255" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E255" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F255" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G255" s="1" t="s">
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A256" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B256" s="1" t="s">
         <x:v>307</x:v>
       </x:c>
       <x:c r="C256" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D256" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E256" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F256" s="1" t="s">
-        <x:v>308</x:v>
-      </x:c>
-      <x:c r="G256" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -7038,185 +7179,179 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B257" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C257" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D257" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E257" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F257" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G257" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A258" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B258" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C258" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D258" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E258" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F258" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G258" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A259" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B259" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C259" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D259" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E259" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F259" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G259" s="1" t="s">
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A260" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B260" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C260" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D260" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E260" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F260" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G260" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A261" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B261" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C261" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D261" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E261" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F261" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G261" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A262" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B262" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C262" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D262" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E262" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F262" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G262" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A263" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B263" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C263" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D263" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E263" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F263" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G263" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A264" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B264" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C264" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D264" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E264" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F264" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G264" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A265" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B265" s="1" t="s">
         <x:v>311</x:v>
@@ -7225,188 +7360,191 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D265" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E265" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F265" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G265" s="1" t="s">
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A266" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B266" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C266" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D266" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E266" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F266" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G266" s="1" t="s">
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A267" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B267" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C267" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D267" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E267" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F267" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G267" s="1" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A268" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B268" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C268" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D268" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E268" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F268" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G268" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A269" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B269" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C269" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D269" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E269" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F269" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G269" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A270" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B270" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C270" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D270" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E270" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F270" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G270" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A271" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B271" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D271" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E271" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F271" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G271" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A272" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B272" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C272" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D272" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E272" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="F272" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G272" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A273" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B273" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C273" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D273" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E273" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F273" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G273" s="1" t="s">
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -7420,162 +7558,165 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D274" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E274" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F274" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G274" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A275" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B275" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C275" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D275" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E275" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F275" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A276" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B276" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C276" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D276" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E276" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F276" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G276" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A277" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B277" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C277" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D277" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E277" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F277" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G277" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A278" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B278" s="1" t="s">
         <x:v>315</x:v>
       </x:c>
       <x:c r="C278" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D278" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E278" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F278" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G278" s="1" t="s">
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A279" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B279" s="1" t="s">
         <x:v>315</x:v>
       </x:c>
       <x:c r="C279" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D279" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E279" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F279" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A280" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B280" s="1" t="s">
         <x:v>315</x:v>
       </x:c>
       <x:c r="C280" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D280" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E280" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F280" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G280" s="1" t="s">
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A281" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B281" s="1" t="s">
         <x:v>315</x:v>
       </x:c>
       <x:c r="C281" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D281" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E281" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F281" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -7589,18 +7730,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D282" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E282" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F282" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A283" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B283" s="1" t="s">
         <x:v>315</x:v>
@@ -7609,21 +7750,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D283" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E283" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F283" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G283" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A284" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B284" s="1" t="s">
         <x:v>315</x:v>
@@ -7632,18 +7773,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D284" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E284" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F284" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A285" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B285" s="1" t="s">
         <x:v>315</x:v>
@@ -7652,76 +7793,79 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D285" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E285" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F285" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G285" s="1" t="s">
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A286" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B286" s="1" t="s">
         <x:v>315</x:v>
       </x:c>
       <x:c r="C286" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D286" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E286" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F286" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G286" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A287" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B287" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C287" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D287" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E287" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F287" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G287" s="1" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A288" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B288" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C288" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D288" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E288" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F288" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G288" s="1" t="s">
         <x:v>111</x:v>
@@ -7729,340 +7873,337 @@
     </x:row>
     <x:row r="289" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A289" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B289" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C289" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D289" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E289" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F289" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G289" s="1" t="s">
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A290" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B290" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C290" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D290" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E290" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F290" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G290" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A291" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B291" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C291" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D291" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E291" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F291" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G291" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A292" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B292" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C292" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D292" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E292" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F292" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G292" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A293" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B293" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C293" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D293" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E293" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F293" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G293" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A294" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B294" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C294" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D294" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E294" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F294" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G294" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A295" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B295" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C295" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D295" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E295" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F295" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A296" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B296" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C296" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D296" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E296" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F296" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A297" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B297" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C297" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D297" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E297" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F297" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A298" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B298" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C298" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D298" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E298" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F298" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A299" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B299" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C299" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D299" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E299" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F299" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A300" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B300" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C300" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D300" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E300" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F300" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A301" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B301" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C301" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D301" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E301" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F301" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A302" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B302" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C302" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D302" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E302" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F302" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G302" s="1" t="s">
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A303" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B303" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C303" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D303" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E303" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F303" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G303" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A304" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B304" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C304" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D304" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E304" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F304" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G304" s="1" t="s">
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8070,7 +8211,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="B305" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C305" s="1" t="s">
         <x:v>10</x:v>
@@ -8085,7 +8226,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G305" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8093,7 +8234,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="B306" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C306" s="1" t="s">
         <x:v>10</x:v>
@@ -8116,7 +8257,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B307" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C307" s="1" t="s">
         <x:v>10</x:v>
@@ -8136,7 +8277,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="B308" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C308" s="1" t="s">
         <x:v>10</x:v>
@@ -8159,19 +8300,22 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="B309" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C309" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D309" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E309" s="1" t="s">
         <x:v>296</x:v>
       </x:c>
       <x:c r="F309" s="1" t="s">
         <x:v>104</x:v>
+      </x:c>
+      <x:c r="G309" s="1" t="s">
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8179,7 +8323,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="B310" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C310" s="1" t="s">
         <x:v>10</x:v>
@@ -8199,7 +8343,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="B311" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C311" s="1" t="s">
         <x:v>10</x:v>
@@ -8216,168 +8360,180 @@
     </x:row>
     <x:row r="312" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A312" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B312" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C312" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D312" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E312" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F312" s="1" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="G312" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="H312" s="1" t="s">
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A313" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B313" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C313" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D313" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E313" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F313" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G313" s="1" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A314" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B314" s="1" t="s">
         <x:v>329</x:v>
       </x:c>
       <x:c r="C314" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D314" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E314" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F314" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A315" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B315" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C315" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D315" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E315" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F315" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G315" s="1" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H315" s="1" t="s">
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A316" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B316" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C316" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D316" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E316" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F316" s="1" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H316" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A317" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B317" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C317" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D317" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E317" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F317" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A318" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B318" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C318" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D318" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E318" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="E318" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="F318" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A319" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B319" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C319" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D319" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E319" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F319" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G319" s="1" t="s">
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8385,79 +8541,88 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B320" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C320" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D320" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E320" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F320" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A321" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B321" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C321" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D321" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E321" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F321" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G321" s="1" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="H321" s="1" t="s">
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A322" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B322" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C322" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D322" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E322" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F322" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A323" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B323" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C323" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D323" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E323" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F323" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H323" s="1" t="s">
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8465,19 +8630,19 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="B324" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C324" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D324" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E324" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E324" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="F324" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8485,7 +8650,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="B325" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C325" s="1" t="s">
         <x:v>10</x:v>
@@ -8494,17 +8659,582 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E325" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F325" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A326" s="1" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B326" s="1" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C326" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D326" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E326" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F326" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G326" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A327" s="1" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="B327" s="1" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C327" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D327" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E327" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F327" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G327" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="H327" s="1" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A328" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B328" s="1" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C328" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D328" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E328" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="F325" s="1" t="s">
+      <x:c r="F328" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
     </x:row>
-    <x:row r="326" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="327" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="328" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="329" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="330" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="329" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A329" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B329" s="1" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C329" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D329" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E329" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F329" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A330" s="1" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B330" s="1" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C330" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D330" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E330" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F330" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G330" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A331" s="1" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B331" s="1" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C331" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D331" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E331" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F331" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G331" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A332" s="1" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B332" s="1" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C332" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D332" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E332" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F332" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G332" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A333" s="1" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B333" s="1" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="C333" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D333" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E333" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F333" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G333" s="1" t="s">
+        <x:v>357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A334" s="1" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B334" s="1" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C334" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D334" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E334" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F334" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G334" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A335" s="1" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B335" s="1" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C335" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D335" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E335" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F335" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G335" s="1" t="s">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A336" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B336" s="1" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C336" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D336" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E336" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F336" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A337" s="1" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B337" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C337" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D337" s="1" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="E337" s="1" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="F337" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G337" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="338" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A338" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B338" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C338" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D338" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E338" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F338" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="339" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A339" s="1" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B339" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C339" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D339" s="1" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="E339" s="1" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="F339" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G339" s="1" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A340" s="1" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B340" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C340" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D340" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E340" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F340" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="341" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A341" s="1" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B341" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C341" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D341" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E341" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F341" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G341" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="342" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A342" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B342" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C342" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D342" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E342" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F342" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A343" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B343" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C343" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D343" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E343" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F343" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A344" s="1" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B344" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C344" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D344" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E344" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F344" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="345" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A345" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B345" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C345" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D345" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E345" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F345" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A346" s="1" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B346" s="1" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C346" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D346" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E346" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F346" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A347" s="1" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B347" s="1" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="C347" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D347" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E347" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F347" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G347" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A348" s="1" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B348" s="1" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="C348" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D348" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E348" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F348" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G348" s="1" t="s">
+        <x:v>373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A349" s="1" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B349" s="1" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="C349" s="1" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D349" s="1" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="E349" s="1" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="F349" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="350" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A350" s="1" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B350" s="1" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C350" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D350" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E350" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F350" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G350" s="1" t="s">
+        <x:v>373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A351" s="1" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B351" s="1" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C351" s="1" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="D351" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E351" s="1" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="F351" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="353" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="354" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="355" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="356" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:H1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
